--- a/Data/ExtractPdfData.xlsx
+++ b/Data/ExtractPdfData.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
   <x:si>
     <x:t>First Name</x:t>
   </x:si>
@@ -118,7 +118,7 @@
     <x:t>CRST</x:t>
   </x:si>
   <x:si>
-    <x:t>Sydney</x:t>
+    <x:t>Montgomery</x:t>
   </x:si>
   <x:si>
     <x:t>Doug</x:t>
@@ -166,9 +166,6 @@
     <x:t>ULIP</x:t>
   </x:si>
   <x:si>
-    <x:t>Jaipur</x:t>
-  </x:si>
-  <x:si>
     <x:t>Jane</x:t>
   </x:si>
   <x:si>
@@ -278,9 +275,6 @@
     <x:t>URCP</x:t>
   </x:si>
   <x:si>
-    <x:t>Montgomery</x:t>
-  </x:si>
-  <x:si>
     <x:t xml:space="preserve">131p541
 </x:t>
   </x:si>
@@ -361,9 +355,6 @@
   </x:si>
   <x:si>
     <x:t>HQRS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>St. John's</x:t>
   </x:si>
   <x:si>
     <x:t>Michael</x:t>
@@ -979,7 +970,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="O3" s="2" t="s">
-        <x:v>42</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="P3" s="2" t="s"/>
       <x:c r="Q3" s="2" t="s"/>
@@ -994,38 +985,38 @@
     </x:row>
     <x:row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <x:c r="A4" s="2" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B4" s="2" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="B4" s="2" t="s">
+      <x:c r="C4" s="2" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="C4" s="2" t="s">
+      <x:c r="D4" s="2" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="D4" s="2" t="s">
+      <x:c r="E4" s="2" t="s">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="E4" s="2" t="s">
+      <x:c r="F4" s="2" t="s">
         <x:v>47</x:v>
       </x:c>
-      <x:c r="F4" s="2" t="s">
+      <x:c r="G4" s="2" t="s">
         <x:v>48</x:v>
-      </x:c>
-      <x:c r="G4" s="2" t="s">
-        <x:v>49</x:v>
       </x:c>
       <x:c r="H4" s="2" t="s"/>
       <x:c r="I4" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="J4" s="2" t="s">
         <x:v>50</x:v>
-      </x:c>
-      <x:c r="J4" s="2" t="s">
-        <x:v>51</x:v>
       </x:c>
       <x:c r="K4" s="2" t="s">
         <x:v>38</x:v>
       </x:c>
       <x:c r="L4" s="2" t="s">
-        <x:v>52</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="M4" s="2" t="s">
         <x:v>40</x:v>
@@ -1034,7 +1025,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="O4" s="2" t="s">
-        <x:v>42</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="P4" s="2" t="s"/>
       <x:c r="Q4" s="2" t="s"/>
@@ -1049,38 +1040,38 @@
     </x:row>
     <x:row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <x:c r="A5" s="2" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="B5" s="2" t="s">
         <x:v>53</x:v>
       </x:c>
-      <x:c r="B5" s="2" t="s">
+      <x:c r="C5" s="2" t="s">
         <x:v>54</x:v>
       </x:c>
-      <x:c r="C5" s="2" t="s">
+      <x:c r="D5" s="2" t="s">
         <x:v>55</x:v>
       </x:c>
-      <x:c r="D5" s="2" t="s">
+      <x:c r="E5" s="2" t="s">
         <x:v>56</x:v>
       </x:c>
-      <x:c r="E5" s="2" t="s">
+      <x:c r="F5" s="2" t="s">
         <x:v>57</x:v>
       </x:c>
-      <x:c r="F5" s="2" t="s">
-        <x:v>58</x:v>
-      </x:c>
       <x:c r="G5" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="H5" s="2" t="s"/>
       <x:c r="I5" s="2" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="J5" s="2" t="s">
         <x:v>59</x:v>
-      </x:c>
-      <x:c r="J5" s="2" t="s">
-        <x:v>60</x:v>
       </x:c>
       <x:c r="K5" s="2" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="L5" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="M5" s="2" t="s">
         <x:v>26</x:v>
@@ -1104,47 +1095,47 @@
     </x:row>
     <x:row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <x:c r="A6" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="B6" s="2" t="s">
         <x:v>62</x:v>
       </x:c>
-      <x:c r="B6" s="2" t="s">
+      <x:c r="C6" s="2" t="s">
         <x:v>63</x:v>
       </x:c>
-      <x:c r="C6" s="2" t="s">
+      <x:c r="D6" s="2" t="s">
         <x:v>64</x:v>
-      </x:c>
-      <x:c r="D6" s="2" t="s">
-        <x:v>65</x:v>
       </x:c>
       <x:c r="E6" s="2" t="s">
         <x:v>33</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="G6" s="2" t="s">
         <x:v>66</x:v>
-      </x:c>
-      <x:c r="G6" s="2" t="s">
-        <x:v>67</x:v>
       </x:c>
       <x:c r="H6" s="2" t="s"/>
       <x:c r="I6" s="2" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="J6" s="2" t="s">
         <x:v>68</x:v>
       </x:c>
-      <x:c r="J6" s="2" t="s">
+      <x:c r="K6" s="2" t="s">
         <x:v>69</x:v>
       </x:c>
-      <x:c r="K6" s="2" t="s">
+      <x:c r="L6" s="2" t="s">
         <x:v>70</x:v>
       </x:c>
-      <x:c r="L6" s="2" t="s">
+      <x:c r="M6" s="2" t="s">
         <x:v>71</x:v>
       </x:c>
-      <x:c r="M6" s="2" t="s">
+      <x:c r="N6" s="2" t="s">
         <x:v>72</x:v>
       </x:c>
-      <x:c r="N6" s="2" t="s">
-        <x:v>73</x:v>
-      </x:c>
       <x:c r="O6" s="2" t="s">
-        <x:v>74</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="P6" s="2" t="s"/>
       <x:c r="Q6" s="2" t="s"/>
@@ -1159,47 +1150,47 @@
     </x:row>
     <x:row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <x:c r="A7" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="B7" s="2" t="s">
         <x:v>62</x:v>
       </x:c>
-      <x:c r="B7" s="2" t="s">
+      <x:c r="C7" s="2" t="s">
         <x:v>63</x:v>
       </x:c>
-      <x:c r="C7" s="2" t="s">
+      <x:c r="D7" s="2" t="s">
         <x:v>64</x:v>
-      </x:c>
-      <x:c r="D7" s="2" t="s">
-        <x:v>65</x:v>
       </x:c>
       <x:c r="E7" s="2" t="s">
         <x:v>33</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="G7" s="2" t="s">
-        <x:v>76</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="H7" s="2" t="s"/>
       <x:c r="I7" s="2" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="J7" s="2" t="s">
         <x:v>68</x:v>
       </x:c>
-      <x:c r="J7" s="2" t="s">
+      <x:c r="K7" s="2" t="s">
         <x:v>69</x:v>
       </x:c>
-      <x:c r="K7" s="2" t="s">
+      <x:c r="L7" s="2" t="s">
         <x:v>70</x:v>
       </x:c>
-      <x:c r="L7" s="2" t="s">
+      <x:c r="M7" s="2" t="s">
         <x:v>71</x:v>
       </x:c>
-      <x:c r="M7" s="2" t="s">
+      <x:c r="N7" s="2" t="s">
         <x:v>72</x:v>
       </x:c>
-      <x:c r="N7" s="2" t="s">
-        <x:v>73</x:v>
-      </x:c>
       <x:c r="O7" s="2" t="s">
-        <x:v>74</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="P7" s="2" t="s"/>
       <x:c r="Q7" s="2" t="s"/>
@@ -1214,47 +1205,47 @@
     </x:row>
     <x:row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <x:c r="A8" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="B8" s="2" t="s">
         <x:v>62</x:v>
       </x:c>
-      <x:c r="B8" s="2" t="s">
+      <x:c r="C8" s="2" t="s">
         <x:v>63</x:v>
       </x:c>
-      <x:c r="C8" s="2" t="s">
+      <x:c r="D8" s="2" t="s">
         <x:v>64</x:v>
-      </x:c>
-      <x:c r="D8" s="2" t="s">
-        <x:v>65</x:v>
       </x:c>
       <x:c r="E8" s="2" t="s">
         <x:v>33</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="G8" s="2" t="s">
-        <x:v>78</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="H8" s="2" t="s"/>
       <x:c r="I8" s="2" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="J8" s="2" t="s">
         <x:v>68</x:v>
       </x:c>
-      <x:c r="J8" s="2" t="s">
+      <x:c r="K8" s="2" t="s">
         <x:v>69</x:v>
       </x:c>
-      <x:c r="K8" s="2" t="s">
+      <x:c r="L8" s="2" t="s">
         <x:v>70</x:v>
       </x:c>
-      <x:c r="L8" s="2" t="s">
+      <x:c r="M8" s="2" t="s">
         <x:v>71</x:v>
       </x:c>
-      <x:c r="M8" s="2" t="s">
+      <x:c r="N8" s="2" t="s">
         <x:v>72</x:v>
       </x:c>
-      <x:c r="N8" s="2" t="s">
-        <x:v>73</x:v>
-      </x:c>
       <x:c r="O8" s="2" t="s">
-        <x:v>74</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="P8" s="2" t="s"/>
       <x:c r="Q8" s="2" t="s"/>
@@ -1269,47 +1260,47 @@
     </x:row>
     <x:row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <x:c r="A9" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="B9" s="2" t="s">
         <x:v>62</x:v>
       </x:c>
-      <x:c r="B9" s="2" t="s">
+      <x:c r="C9" s="2" t="s">
         <x:v>63</x:v>
       </x:c>
-      <x:c r="C9" s="2" t="s">
+      <x:c r="D9" s="2" t="s">
         <x:v>64</x:v>
-      </x:c>
-      <x:c r="D9" s="2" t="s">
-        <x:v>65</x:v>
       </x:c>
       <x:c r="E9" s="2" t="s">
         <x:v>33</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="G9" s="2" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H9" s="2" t="s"/>
       <x:c r="I9" s="2" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="J9" s="2" t="s">
         <x:v>68</x:v>
       </x:c>
-      <x:c r="J9" s="2" t="s">
+      <x:c r="K9" s="2" t="s">
         <x:v>69</x:v>
       </x:c>
-      <x:c r="K9" s="2" t="s">
+      <x:c r="L9" s="2" t="s">
         <x:v>70</x:v>
       </x:c>
-      <x:c r="L9" s="2" t="s">
+      <x:c r="M9" s="2" t="s">
         <x:v>71</x:v>
       </x:c>
-      <x:c r="M9" s="2" t="s">
+      <x:c r="N9" s="2" t="s">
         <x:v>72</x:v>
       </x:c>
-      <x:c r="N9" s="2" t="s">
-        <x:v>73</x:v>
-      </x:c>
       <x:c r="O9" s="2" t="s">
-        <x:v>74</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="P9" s="2" t="s"/>
       <x:c r="Q9" s="2" t="s"/>
@@ -1324,47 +1315,47 @@
     </x:row>
     <x:row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <x:c r="A10" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="B10" s="2" t="s">
         <x:v>62</x:v>
       </x:c>
-      <x:c r="B10" s="2" t="s">
+      <x:c r="C10" s="2" t="s">
         <x:v>63</x:v>
       </x:c>
-      <x:c r="C10" s="2" t="s">
+      <x:c r="D10" s="2" t="s">
         <x:v>64</x:v>
-      </x:c>
-      <x:c r="D10" s="2" t="s">
-        <x:v>65</x:v>
       </x:c>
       <x:c r="E10" s="2" t="s">
         <x:v>33</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s">
-        <x:v>81</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="G10" s="2" t="s">
-        <x:v>82</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="H10" s="2" t="s"/>
       <x:c r="I10" s="2" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="J10" s="2" t="s">
         <x:v>68</x:v>
       </x:c>
-      <x:c r="J10" s="2" t="s">
+      <x:c r="K10" s="2" t="s">
         <x:v>69</x:v>
       </x:c>
-      <x:c r="K10" s="2" t="s">
+      <x:c r="L10" s="2" t="s">
         <x:v>70</x:v>
       </x:c>
-      <x:c r="L10" s="2" t="s">
+      <x:c r="M10" s="2" t="s">
         <x:v>71</x:v>
       </x:c>
-      <x:c r="M10" s="2" t="s">
+      <x:c r="N10" s="2" t="s">
         <x:v>72</x:v>
       </x:c>
-      <x:c r="N10" s="2" t="s">
-        <x:v>73</x:v>
-      </x:c>
       <x:c r="O10" s="2" t="s">
-        <x:v>74</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="P10" s="2" t="s"/>
       <x:c r="Q10" s="2" t="s"/>
@@ -1379,47 +1370,47 @@
     </x:row>
     <x:row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <x:c r="A11" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="B11" s="2" t="s">
         <x:v>62</x:v>
       </x:c>
-      <x:c r="B11" s="2" t="s">
+      <x:c r="C11" s="2" t="s">
         <x:v>63</x:v>
       </x:c>
-      <x:c r="C11" s="2" t="s">
+      <x:c r="D11" s="2" t="s">
         <x:v>64</x:v>
-      </x:c>
-      <x:c r="D11" s="2" t="s">
-        <x:v>65</x:v>
       </x:c>
       <x:c r="E11" s="2" t="s">
         <x:v>33</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s">
-        <x:v>83</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="G11" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="H11" s="2" t="s"/>
       <x:c r="I11" s="2" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="J11" s="2" t="s">
         <x:v>68</x:v>
       </x:c>
-      <x:c r="J11" s="2" t="s">
+      <x:c r="K11" s="2" t="s">
         <x:v>69</x:v>
       </x:c>
-      <x:c r="K11" s="2" t="s">
+      <x:c r="L11" s="2" t="s">
         <x:v>70</x:v>
       </x:c>
-      <x:c r="L11" s="2" t="s">
+      <x:c r="M11" s="2" t="s">
         <x:v>71</x:v>
       </x:c>
-      <x:c r="M11" s="2" t="s">
+      <x:c r="N11" s="2" t="s">
         <x:v>72</x:v>
       </x:c>
-      <x:c r="N11" s="2" t="s">
-        <x:v>73</x:v>
-      </x:c>
       <x:c r="O11" s="2" t="s">
-        <x:v>74</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="P11" s="2" t="s"/>
       <x:c r="Q11" s="2" t="s"/>
@@ -1434,47 +1425,47 @@
     </x:row>
     <x:row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <x:c r="A12" s="2" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="B12" s="2" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="C12" s="2" t="s">
         <x:v>85</x:v>
       </x:c>
-      <x:c r="B12" s="2" t="s">
+      <x:c r="D12" s="2" t="s">
         <x:v>86</x:v>
       </x:c>
-      <x:c r="C12" s="2" t="s">
+      <x:c r="E12" s="2" t="s">
         <x:v>87</x:v>
       </x:c>
-      <x:c r="D12" s="2" t="s">
+      <x:c r="F12" s="2" t="s">
         <x:v>88</x:v>
       </x:c>
-      <x:c r="E12" s="2" t="s">
+      <x:c r="G12" s="2" t="s">
         <x:v>89</x:v>
-      </x:c>
-      <x:c r="F12" s="2" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="G12" s="2" t="s">
-        <x:v>91</x:v>
       </x:c>
       <x:c r="H12" s="2" t="s"/>
       <x:c r="I12" s="2" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="J12" s="2" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="K12" s="2" t="s">
         <x:v>92</x:v>
       </x:c>
-      <x:c r="J12" s="2" t="s">
+      <x:c r="L12" s="2" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="M12" s="2" t="s">
         <x:v>93</x:v>
       </x:c>
-      <x:c r="K12" s="2" t="s">
+      <x:c r="N12" s="2" t="s">
         <x:v>94</x:v>
       </x:c>
-      <x:c r="L12" s="2" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="M12" s="2" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="N12" s="2" t="s">
-        <x:v>96</x:v>
-      </x:c>
       <x:c r="O12" s="2" t="s">
-        <x:v>97</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="P12" s="2" t="s"/>
       <x:c r="Q12" s="2" t="s"/>
@@ -1489,47 +1480,47 @@
     </x:row>
     <x:row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <x:c r="A13" s="2" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="B13" s="2" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="C13" s="2" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="D13" s="2" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="E13" s="2" t="s">
         <x:v>98</x:v>
       </x:c>
-      <x:c r="B13" s="2" t="s">
+      <x:c r="F13" s="2" t="s">
         <x:v>99</x:v>
       </x:c>
-      <x:c r="C13" s="2" t="s">
+      <x:c r="G13" s="2" t="s">
         <x:v>100</x:v>
-      </x:c>
-      <x:c r="D13" s="2" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="E13" s="2" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="F13" s="2" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="G13" s="2" t="s">
-        <x:v>103</x:v>
       </x:c>
       <x:c r="H13" s="2" t="s"/>
       <x:c r="I13" s="2" t="s">
-        <x:v>104</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="J13" s="2" t="s">
-        <x:v>105</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="K13" s="2" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="L13" s="2" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="M13" s="2" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="N13" s="2" t="s">
         <x:v>94</x:v>
       </x:c>
-      <x:c r="L13" s="2" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="M13" s="2" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="N13" s="2" t="s">
-        <x:v>96</x:v>
-      </x:c>
       <x:c r="O13" s="2" t="s">
-        <x:v>97</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="P13" s="2" t="s"/>
       <x:c r="Q13" s="2" t="s"/>
@@ -1544,38 +1535,38 @@
     </x:row>
     <x:row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <x:c r="A14" s="2" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="B14" s="2" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="C14" s="2" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="D14" s="2" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="E14" s="2" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="F14" s="2" t="s">
         <x:v>106</x:v>
       </x:c>
-      <x:c r="B14" s="2" t="s">
+      <x:c r="G14" s="2" t="s">
         <x:v>107</x:v>
-      </x:c>
-      <x:c r="C14" s="2" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="D14" s="2" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="E14" s="2" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="F14" s="2" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="G14" s="2" t="s">
-        <x:v>110</x:v>
       </x:c>
       <x:c r="H14" s="2" t="s"/>
       <x:c r="I14" s="2" t="s">
-        <x:v>111</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="J14" s="2" t="s">
-        <x:v>112</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="K14" s="2" t="s">
         <x:v>38</x:v>
       </x:c>
       <x:c r="L14" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="M14" s="2" t="s">
         <x:v>40</x:v>
@@ -1584,7 +1575,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="O14" s="2" t="s">
-        <x:v>42</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="P14" s="2" t="s"/>
       <x:c r="Q14" s="2" t="s"/>
@@ -1599,32 +1590,32 @@
     </x:row>
     <x:row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <x:c r="A15" s="2" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="B15" s="2" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="C15" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="D15" s="2" t="s">
         <x:v>113</x:v>
       </x:c>
-      <x:c r="B15" s="2" t="s">
+      <x:c r="E15" s="2" t="s">
         <x:v>114</x:v>
       </x:c>
-      <x:c r="C15" s="2" t="s">
+      <x:c r="F15" s="2" t="s">
         <x:v>115</x:v>
       </x:c>
-      <x:c r="D15" s="2" t="s">
+      <x:c r="G15" s="2" t="s">
         <x:v>116</x:v>
-      </x:c>
-      <x:c r="E15" s="2" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="F15" s="2" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="G15" s="2" t="s">
-        <x:v>119</x:v>
       </x:c>
       <x:c r="H15" s="2" t="s"/>
       <x:c r="I15" s="2" t="s">
-        <x:v>120</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="J15" s="2" t="s">
-        <x:v>112</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="K15" s="2" t="s">
         <x:v>24</x:v>
@@ -1654,47 +1645,47 @@
     </x:row>
     <x:row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <x:c r="A16" s="2" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="B16" s="2" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="C16" s="2" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="D16" s="2" t="s">
         <x:v>121</x:v>
       </x:c>
-      <x:c r="B16" s="2" t="s">
+      <x:c r="E16" s="2" t="s">
         <x:v>122</x:v>
       </x:c>
-      <x:c r="C16" s="2" t="s">
+      <x:c r="F16" s="2" t="s">
         <x:v>123</x:v>
       </x:c>
-      <x:c r="D16" s="2" t="s">
+      <x:c r="G16" s="2" t="s">
         <x:v>124</x:v>
-      </x:c>
-      <x:c r="E16" s="2" t="s">
-        <x:v>125</x:v>
-      </x:c>
-      <x:c r="F16" s="2" t="s">
-        <x:v>126</x:v>
-      </x:c>
-      <x:c r="G16" s="2" t="s">
-        <x:v>127</x:v>
       </x:c>
       <x:c r="H16" s="2" t="s"/>
       <x:c r="I16" s="2" t="s">
-        <x:v>128</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="J16" s="2" t="s">
-        <x:v>129</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="K16" s="2" t="s">
-        <x:v>70</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="L16" s="2" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="M16" s="2" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="N16" s="2" t="s">
         <x:v>72</x:v>
       </x:c>
-      <x:c r="N16" s="2" t="s">
-        <x:v>73</x:v>
-      </x:c>
       <x:c r="O16" s="2" t="s">
-        <x:v>74</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="P16" s="2" t="s"/>
       <x:c r="Q16" s="2" t="s"/>
